--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -917,8 +917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -3529,7 +3529,7 @@
   <autoFilter ref="C1:C133">
     <filterColumn colId="0">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$D$133</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -914,11 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -991,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1217,7 +1216,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1413,7 +1412,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1647,7 +1646,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1883,7 +1882,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1901,7 +1900,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1997,7 +1996,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2015,7 +2014,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2073,7 +2072,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2091,7 +2090,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2267,7 +2266,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2361,7 +2360,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2557,7 +2556,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3253,7 +3252,7 @@
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3271,7 +3270,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -3407,7 +3406,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -3445,7 +3444,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -3526,13 +3525,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C133">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:D133"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3540,12 +3533,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:XFD61"/>
     </sheetView>
   </sheetViews>
